--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.700999999999991</v>
+        <v>5.604199999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.6207</v>
+        <v>-11.7169</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.7541</v>
+        <v>-11.83779999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.965699999999998</v>
+        <v>4.937699999999997</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.26069999999999</v>
+        <v>-11.26179999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.79770000000001</v>
+        <v>-22.65530000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>5.732900000000001</v>
+        <v>5.632199999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.802800000000003</v>
+        <v>8.594100000000005</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -757,7 +757,7 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.2666</v>
+        <v>-13.22559999999999</v>
       </c>
       <c r="D19" t="n">
         <v>-8.470000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.9956</v>
+        <v>-13.0606</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>4.803600000000006</v>
+        <v>4.814300000000006</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.54149999999999</v>
+        <v>-11.55119999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
